--- a/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
+++ b/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_new\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="领取验收单" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">领取验收单!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领取验收单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${t.purnumbers}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +218,65 @@
   </si>
   <si>
     <t>${t.actuarialamount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>领</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,18 +284,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,23 +304,20 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Yu Gothic"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Yu Gothic"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <name val="Yu Gothic"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +334,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -325,27 +386,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -629,208 +693,210 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2" max="10" width="5.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="1" customWidth="1"/>
-    <col min="12" max="22" width="5.26953125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="4.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16" width="4.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" style="1" customWidth="1"/>
+    <col min="18" max="22" width="4.77734375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="114" customHeight="1">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:22" ht="132.75" customHeight="1">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="130.05000000000001" customHeight="1">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:22" ht="130.15" customHeight="1">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
+++ b/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_new\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="领取验收单" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">领取验收单!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -43,22 +43,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="V5")</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>jx:area(lastCell="D22")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +58,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="cgList", var="t", lastCell="V5")`</t>
+          <t>jx:each(items="cgList", var="t", lastCell="D22",direction="RIGHT")`</t>
         </r>
         <r>
           <rPr>
@@ -89,194 +78,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>采购编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.purnumbers}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.group_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.setplace}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.controller}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.username}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.procurementproject}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.procurementdetails}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.remarks}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.quantity}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.unitprice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.totalamount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.collectionday}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.actuarialamount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>申请日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>放置场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采购项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采购明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入库日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>领取日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>领取人签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产管理番号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精算金额</t>
-  </si>
-  <si>
-    <t>资产管理番号</t>
-  </si>
-  <si>
-    <t>验收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验收人签字</t>
-  </si>
-  <si>
-    <t>采购编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(总务、财务)
-入库点检人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.purnumbers}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库点检人
+(总务、财务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.storagedate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${t.application_date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.group_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.user_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.setplace}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.controller}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.username}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.procurementproject}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.procurementdetails}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.remarks}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.quantity}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.unitprice}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.totalamount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.storagedate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.collectionday}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.actuarialamount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>领</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>验</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>收</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,40 +233,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,15 +282,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -359,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -382,34 +320,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -687,224 +651,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="4.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16" width="4.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.21875" style="1" customWidth="1"/>
-    <col min="18" max="22" width="4.77734375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="4.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="B2" s="3"/>
+    <row r="1" spans="1:4" ht="6" customHeight="1"/>
+    <row r="2" spans="1:4" ht="33" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="B3" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" ht="132.75" customHeight="1">
-      <c r="B4" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" customHeight="1">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="33" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="33" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="79.95" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="120" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="7" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="7" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="33" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="7" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="33" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="33" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="7" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="33" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" ht="33" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" ht="33" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="130.15" customHeight="1">
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="5" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="33" customHeight="1">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4" ht="33" customHeight="1">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4" ht="33" customHeight="1">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:V3"/>
+  <mergeCells count="21">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,加粗"&amp;18领取验收单</oddHeader>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
+++ b/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_new\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,20 +234,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,14 +256,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Yu Gothic"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -283,7 +283,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,30 +356,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -653,233 +665,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="4.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="6" customHeight="1"/>
-    <row r="2" spans="1:4" ht="33" customHeight="1">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="30" customHeight="1">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" customHeight="1">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" customHeight="1">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33" customHeight="1">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33" customHeight="1">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="79.95" customHeight="1">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:4" ht="69.95" customHeight="1">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120" customHeight="1">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:4" ht="69.95" customHeight="1">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" customHeight="1">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" customHeight="1">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="33" customHeight="1">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" customHeight="1">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" customHeight="1">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="33" customHeight="1">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:4" ht="30" customHeight="1">
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4" ht="33" customHeight="1">
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4" ht="33" customHeight="1">
-      <c r="B19" s="2" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1">
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="33" customHeight="1">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:4" ht="30" customHeight="1">
+      <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" ht="33" customHeight="1">
-      <c r="B21" s="2" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" ht="30" customHeight="1">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" ht="33" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="30" customHeight="1">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="4"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
+++ b/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="69.95" customHeight="1">
+    <row r="10" spans="1:4" ht="65.099999999999994" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="69.95" customHeight="1">
+    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -887,10 +887,10 @@
     <mergeCell ref="B22:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,加粗"&amp;18领取验收单</oddHeader>
+    <oddHeader>&amp;C&amp;18领取验收单</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
+++ b/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newtouch\SVN\07_P_FANS\05Dev\01Source\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>采购编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>${t.application_date}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.budgetnumber}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,18 +244,18 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,14 +264,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,6 +289,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -366,10 +382,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -377,11 +396,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,228 +679,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="6" customHeight="1"/>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:4" ht="65.099999999999994" customHeight="1">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="B14" s="8" t="s">
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="2:4" ht="30" customHeight="1">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1">
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="2:4" ht="30" customHeight="1">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1">
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" ht="30" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="2:4" ht="30" customHeight="1">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="30" customHeight="1">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1">
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" ht="30" customHeight="1">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="2"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="22">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
+++ b/controller/src/main/resources/jxls_templates/lingquyanshoudan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${t.group_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${t.user_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>${t.budgetnumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.center_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,11 +384,8 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -396,12 +393,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -681,207 +681,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="1.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="6" customHeight="1"/>
     <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:4" ht="65.099999999999994" customHeight="1">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" customHeight="1">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1">
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:4" ht="30" customHeight="1">
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" ht="30" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1">
-      <c r="B19" s="7" t="s">
+    <row r="21" spans="2:4" ht="30" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="30" customHeight="1">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1">
-      <c r="B20" s="5" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" ht="30" customHeight="1">
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3"/>
     </row>
     <row r="34" spans="4:4">
@@ -889,28 +887,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
